--- a/world/TAB_VOYAGER_AUTREMENT.xlsx
+++ b/world/TAB_VOYAGER_AUTREMENT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FOR5\Documents\GitHub\tel\world\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coffee Drinker\Documents\GitHub\tel\world\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B38A4D-10F6-49BC-9704-F51C181B7BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Afrique" sheetId="2" r:id="rId1"/>
@@ -582,7 +583,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -922,11 +923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,129 +988,129 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -1119,61 +1120,64 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M37">
+    <sortCondition ref="A3:A37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,10 +1452,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1727,7 +1731,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:A54">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A54">
     <sortCondition ref="A3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1736,11 +1740,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A3" sqref="A3:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,98 +1804,101 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L16">
+    <sortCondition ref="A3:A16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A3" sqref="A3:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,66 +1957,69 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L12">
+    <sortCondition ref="A3:A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,7 +2088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2131,7 +2141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/world/TAB_VOYAGER_AUTREMENT.xlsx
+++ b/world/TAB_VOYAGER_AUTREMENT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coffee Drinker\Documents\GitHub\tel\world\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mklein\Documents\GitHub\tel\world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B38A4D-10F6-49BC-9704-F51C181B7BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Afrique" sheetId="2" r:id="rId1"/>
@@ -583,7 +582,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -923,7 +922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1164,7 +1163,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M37">
+  <sortState ref="A2:M37">
     <sortCondition ref="A3:A37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1173,7 +1172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1452,7 +1451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1731,7 +1730,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A54">
+  <sortState ref="A3:A54">
     <sortCondition ref="A3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1740,7 +1739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1885,7 +1884,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L16">
+  <sortState ref="A2:L16">
     <sortCondition ref="A3:A16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1894,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2006,7 +2005,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L12">
+  <sortState ref="A2:L12">
     <sortCondition ref="A3:A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2015,10 +2014,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
@@ -2088,11 +2087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,7 +2140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
